--- a/ODK-X_surveys/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="income" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="food_security" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="crops_fishing" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="contact_information" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="215">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -137,12 +138,507 @@
     <t xml:space="preserve">do section crops_fishing</t>
   </si>
   <si>
+    <t xml:space="preserve">Contact information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do section contact_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yesno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levuka Vakavita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wailailai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wailailai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vagadaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagadaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are to be replaced by freelisting results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset_inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thing10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thing 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food_security_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always had enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't have enough a few times a year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't have enough a few times a month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't have enough a few times a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never or almost never had enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head of household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spouse of Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other household member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_from_house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone from outside the home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_census</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customary_membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customary Membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family unit information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset_wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household Asset Inventory/Wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income of Head and Spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food_security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crops_fishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crops under Cultivation/Fishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectionArgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_household_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_id = ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ data('household_id') ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ household_id : data('household_id'), lives_in_household : 'yes', village : data('household_village') }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass household_id and village variables to member, and defaults lives_in_household to yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creates roster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ household_id : data('household_id') }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass household_id to subforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tokatoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yavusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mataquali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_head_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_head_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_spouse_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_spouse_source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crops_kava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crops_taro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crops_cassava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish_catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate a household ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a picture of the house from outside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture the GPS coordinates of the house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the village where the household is located.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_human_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add readable household ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect customary membership details</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
+    <t xml:space="preserve">Customary Membership Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokatoka:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yavusa:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mataqali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mataqali:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.new_instance_label.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends user to Members subform linked by houeshold_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a list of all individuals who normally live in this household:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add House Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add as many entries as needed to cover all relationships resulting in offspring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family units Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create family lists of offspring resulting from the marriages input in previous question:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select which of the following items are present in the household:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much money did you earn in the past week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you earn this money?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much money did your spouse earn in the past week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did they earn this money?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last year has your household had enough food for three meals a day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately how many kava plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately how many taro plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately how many cassava plants do you have currently under cultivation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an average week, how many days do members of your household go fishing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On average, how many fish are caught when out fishing?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contact information:</t>
   </si>
   <si>
@@ -152,475 +648,73 @@
     <t xml:space="preserve">contact details</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_name</t>
+    <t xml:space="preserve">Contact person 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_name_1</t>
   </si>
   <si>
     <t xml:space="preserve">Contact name</t>
   </si>
   <si>
-    <t xml:space="preserve">contact_details</t>
+    <t xml:space="preserve">contact_role_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relation to household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_details_1</t>
   </si>
   <si>
     <t xml:space="preserve">Contact details</t>
   </si>
   <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yesno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levuka Vakavita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wailailai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wailailai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vagadaci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vagadaci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These are to be replaced by freelisting results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset_inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thing10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thing 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food_security_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always had enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always had enough, but sometimes food was of low quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didn't have enough a few times a year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didn't have enough a few times a month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didn't have enough a few times a week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never or almost never had enough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customary_membership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customary Membership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marriages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family unit information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset_wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household Asset Inventory/Wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income of Head and Spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food_security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crops_fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crops under Cultivation/Fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">query_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">query_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectionArgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_household_member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_id = ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ data('household_id') ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ household_id : data('household_id'), lives_in_household : 'yes', village : data('household_village') }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass household_id and village variables to member, and defaults lives_in_household to yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creates roster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ household_id : data('household_id') }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_marriages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass household_id to subforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tokatoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yavusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mataquali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membership_notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_head_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_head_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_spouse_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_spouse_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crops_kava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crops_taro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crops_cassava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish_catch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate a household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a picture of the house from outside.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture the GPS coordinates of the house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the village where the household is located.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_human_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add readable household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collect customary membership details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customary Membership Information:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokatoka:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yavusa:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mataqali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mataqali:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra Notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.new_instance_label.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sends user to Members subform linked by houeshold_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make a list of all individuals who normally live in this household:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add House Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage Information:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add as many entries as needed to cover all relationships resulting in offspring.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family units Information:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create family lists of offspring resulting from the marriages input in previous question:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select which of the following items are present in the household:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How much money did you earn in the past week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How did you earn this money?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How much money did your spouse earn in the past week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How did they earn this money?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the last year has your household had enough food for three meals a day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximately how many kava plants do you have currently under cultivation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximately how many taro plants do you have currently under cultivation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approximately how many cassava plants do you have currently under cultivation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In an average week, how many days do members of your household go fishing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On average, how many fish are caught when out fishing?</t>
+    <t xml:space="preserve">Contact person 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_name_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">contact_role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">_2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">contact_details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">_2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -669,7 +763,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
@@ -839,7 +939,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -936,6 +1036,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -948,10 +1064,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1052,10 +1164,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1094,6 +1202,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1175,13 +1307,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
@@ -1484,85 +1616,68 @@
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" s="4" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="23" s="4" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1581,133 +1696,133 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
-        <v>177</v>
+      <c r="K1" s="65" t="s">
+        <v>182</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1727,11 +1842,11 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
@@ -1741,98 +1856,98 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="E4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1852,149 +1967,149 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.66"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="G3" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="G4" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
+      <c r="G5" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2014,11 +2129,11 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.24"/>
@@ -2027,86 +2142,86 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="E3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2124,178 +2239,180 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.43359375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.52"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>177</v>
+      <c r="K1" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="G3" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="G4" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="G7" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2307,61 +2424,320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="48.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="33"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="54.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="38.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>48</v>
+      <c r="A1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>50</v>
+      <c r="A2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>51</v>
+      <c r="A3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="27"/>
     </row>
@@ -2369,50 +2745,50 @@
       <c r="D4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>54</v>
+      <c r="A5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>56</v>
+      <c r="A6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>58</v>
+      <c r="A7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>60</v>
+      <c r="A8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="27"/>
     </row>
@@ -2423,208 +2799,241 @@
       <c r="D9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="C16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="C17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="C18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="29" t="s">
+      <c r="C19" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="31" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="31" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="31" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="C31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="27"/>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2643,11 +3052,11 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
@@ -2655,82 +3064,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="B3" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39"/>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="39"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="36"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="39"/>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="36"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="40" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="43" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2739,30 +3148,30 @@
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="45" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2771,39 +3180,39 @@
       <c r="C14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2824,11 +3233,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -2842,171 +3251,171 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.27"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="J1" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="45" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="G3" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="H4" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="I5" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="G6" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="30"/>
+      <c r="H6" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" s="11" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="12"/>
@@ -3039,11 +3448,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
@@ -3051,38 +3460,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -3091,50 +3500,50 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
@@ -3144,7 +3553,7 @@
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>147</v>
@@ -3159,44 +3568,44 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
@@ -3206,7 +3615,7 @@
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>153</v>
@@ -3221,74 +3630,74 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3309,38 +3718,38 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.4453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.47265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -3350,110 +3759,110 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="32"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="47" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="32"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="29"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3473,11 +3882,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.4"/>
@@ -3489,157 +3898,157 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3659,7 +4068,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3680,128 +4089,128 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>177</v>
+      <c r="K1" s="58" t="s">
+        <v>182</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="60" t="s">
+      <c r="A3" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60" t="s">
-        <v>180</v>
+      <c r="E3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" s="63" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" s="46" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="49" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3814,7 +4223,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="63" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3827,27 +4236,27 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="62"/>
-    </row>
-    <row r="11" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" s="46" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="63" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" s="63" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+    </row>
+    <row r="12" s="49" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3860,7 +4269,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="14" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="63" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3891,11 +4300,11 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -3911,122 +4320,122 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="63" t="s">
-        <v>177</v>
+      <c r="K1" s="65" t="s">
+        <v>182</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29"/>
-      <c r="B2" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ODK-X_surveys/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -621,7 +621,7 @@
     <t xml:space="preserve">How did they earn this money?</t>
   </si>
   <si>
-    <t xml:space="preserve">In the last year has your household had enough food for three meals a day?</t>
+    <t xml:space="preserve">In the last year, which of the following statements most accurately describes your food situation?</t>
   </si>
   <si>
     <t xml:space="preserve">Approximately how many kava plants do you have currently under cultivation?</t>
@@ -675,46 +675,10 @@
     <t xml:space="preserve">contact_name_2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">contact_role</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">contact_details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">_2</t>
-    </r>
+    <t xml:space="preserve">contact_role_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_details_2</t>
   </si>
 </sst>
 </file>
@@ -725,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -755,12 +719,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1216,7 +1174,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1313,7 +1271,7 @@
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
@@ -1700,7 +1658,7 @@
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32"/>
@@ -1846,7 +1804,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
@@ -1971,7 +1929,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.66"/>
@@ -2130,10 +2088,10 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.24"/>
@@ -2245,7 +2203,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.48046875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.52"/>
   </cols>
@@ -2431,11 +2389,11 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
@@ -3056,7 +3014,7 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
@@ -3237,7 +3195,7 @@
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -3452,7 +3410,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
@@ -3722,7 +3680,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.47265625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.5078125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="58" t="s">
@@ -3886,7 +3844,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.4"/>
@@ -4068,7 +4026,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4304,7 +4262,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
